--- a/outputs/train-c__Elusimicrobia.xlsx
+++ b/outputs/train-c__Elusimicrobia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
   <si>
     <t>Row</t>
   </si>
@@ -332,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -350,11 +350,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -366,6 +376,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,27 +407,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -427,7 +447,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -447,7 +467,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -467,7 +487,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -487,7 +507,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -507,7 +527,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -527,7 +547,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -547,7 +567,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -567,7 +587,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -587,7 +607,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -607,7 +627,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -627,7 +647,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -647,7 +667,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -667,7 +687,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -687,7 +707,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -707,7 +727,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -727,7 +747,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -747,7 +767,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -784,27 +804,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2">
@@ -824,7 +844,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B3">
@@ -844,7 +864,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -864,7 +884,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B5">
@@ -884,7 +904,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -904,7 +924,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B7">
@@ -924,7 +944,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B8">
@@ -944,7 +964,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B9">
@@ -964,7 +984,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B10">
@@ -984,7 +1004,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11">
@@ -1004,7 +1024,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B12">
@@ -1024,7 +1044,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
@@ -1044,7 +1064,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B14">
@@ -1064,7 +1084,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B15">
@@ -1084,7 +1104,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B16">
@@ -1104,7 +1124,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B17">
@@ -1124,7 +1144,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B18">
@@ -1144,7 +1164,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B19">
@@ -1164,7 +1184,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B20">
@@ -1201,27 +1221,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B2">
@@ -1241,7 +1261,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B3">
@@ -1261,7 +1281,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B4">
@@ -1281,7 +1301,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B5">
@@ -1301,7 +1321,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B6">
@@ -1321,7 +1341,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B7">
@@ -1341,7 +1361,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B8">
@@ -1361,7 +1381,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B9">
@@ -1381,7 +1401,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B10">
@@ -1401,7 +1421,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B11">
@@ -1421,7 +1441,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B12">
@@ -1441,7 +1461,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B13">
@@ -1461,7 +1481,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B14">
@@ -1481,7 +1501,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B15">
@@ -1501,7 +1521,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B16">
@@ -1521,7 +1541,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B17">
@@ -1541,7 +1561,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B18">
@@ -1561,7 +1581,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B19">
@@ -1581,7 +1601,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B20">
@@ -1618,27 +1638,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B2">
@@ -1658,7 +1678,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B3">
@@ -1678,7 +1698,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B4">
@@ -1698,7 +1718,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B5">
@@ -1718,7 +1738,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B6">
@@ -1738,7 +1758,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B7">
@@ -1758,7 +1778,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B8">
@@ -1778,7 +1798,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B9">
@@ -1798,7 +1818,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B10">
@@ -1818,7 +1838,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B11">
@@ -1838,7 +1858,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B12">
@@ -1858,7 +1878,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B13">
@@ -1878,7 +1898,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B14">
@@ -1898,7 +1918,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B15">
@@ -1918,7 +1938,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B16">
@@ -1938,7 +1958,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B17">
@@ -1958,7 +1978,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B18">
@@ -1978,7 +1998,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B19">
@@ -2015,27 +2035,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B2">
@@ -2055,7 +2075,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B3">
@@ -2075,7 +2095,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B4">
@@ -2095,7 +2115,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B5">
@@ -2115,7 +2135,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B6">
@@ -2135,7 +2155,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B7">
@@ -2155,7 +2175,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B8">
@@ -2175,7 +2195,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B9">
@@ -2195,7 +2215,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B10">
@@ -2215,7 +2235,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B11">
@@ -2235,7 +2255,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B12">
@@ -2255,7 +2275,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B13">
@@ -2275,7 +2295,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B14">
@@ -2295,7 +2315,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B15">
@@ -2315,7 +2335,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B16">
@@ -2335,7 +2355,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B17">
@@ -2355,7 +2375,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B18">
@@ -2375,7 +2395,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B19">
